--- a/Datos/Anuario2024/030902_Valenbisi.xlsx
+++ b/Datos/Anuario2024/030902_Valenbisi.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2 graf1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="0" sheetId="105" r:id="rId1"/>
+    <sheet name="1" sheetId="111" r:id="rId2"/>
+    <sheet name="2" sheetId="112" r:id="rId3"/>
+    <sheet name="2 graf1" sheetId="113" r:id="rId4"/>
+    <sheet name="3" sheetId="115" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -79,129 +85,295 @@
     <definedName name="p">'[2]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[2]4.17'!$A$1:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId131" roundtripDataSignature="AMtx7mjoholsyV4wm7X8410XmcGaQJqvwA=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. l'Olivereta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. Jesús</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t>Estaciones</t>
+  </si>
+  <si>
+    <t>Anclajes</t>
+  </si>
+  <si>
+    <t>Anclajes  por 1.000 habitantes</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Abonos larga duración</t>
+  </si>
+  <si>
+    <t>Abonos corta duración</t>
+  </si>
+  <si>
+    <t>Número de usos</t>
+  </si>
+  <si>
+    <t>Media de usos diarios</t>
+  </si>
+  <si>
+    <t>Días laborables</t>
+  </si>
+  <si>
+    <t>Días festivos</t>
+  </si>
+  <si>
+    <t>1. Número total de estaciones de bicicleta y anclajes por distrito. 2023</t>
+  </si>
+  <si>
+    <t>2. Número de biciletas públicas (Valenbisi) y número de abonos según tipo por mes. 2023</t>
+  </si>
+  <si>
+    <t>Número de bicis (31/12/2023)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3. Uso de bicicletas públicas (Valenbisi) según tipo de abono y mes. 2023</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>CARACTERÍSTICAS Y USO DE VALENBISI</t>
+  </si>
+  <si>
+    <t>Nota: En días festivos se han incluido todos los sábados, domingos y días de lunes a viernes considerados festivos para el año estudiado en la ciudad de València.</t>
+  </si>
+  <si>
+    <t>Nota: Población a 01/01/2024</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -282,167 +454,165 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="16" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
     <cellStyle name="Normal 6" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4834890</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="167640" y="350521"/>
+          <a:ext cx="5048250" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -12130,7 +12300,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -15925,8 +16095,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -16833,1285 +17003,1096 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="46.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="inlineStr">
-        <is>
-          <t>CARACTERÍSTICAS Y USO DE VALENBISI</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="18.5703125" customWidth="1" min="1" max="1"/>
-    <col width="20.5703125" customWidth="1" min="2" max="2"/>
-    <col width="14.28515625" customWidth="1" min="3" max="4"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="inlineStr">
-        <is>
-          <t>1. Número total de estaciones de bicicleta y anclajes por distrito. 2023</t>
-        </is>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="14" t="n"/>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>Estaciones</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Anclajes</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Anclajes  por 1.000 habitantes</t>
-        </is>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="22" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="23">
         <f>SUM(B5:B23)</f>
-        <v/>
+        <v>276</v>
       </c>
       <c r="C4" s="23">
         <f>SUM(C5:C23)</f>
-        <v/>
-      </c>
-      <c r="D4" s="24" t="n">
-        <v>6.624079286689478</v>
+        <v>5502</v>
+      </c>
+      <c r="D4" s="24">
+        <v>6.6240792866894775</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="n">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="13">
         <v>22</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="13">
         <v>465</v>
       </c>
-      <c r="D5" s="25" t="n">
-        <v>15.49896673555096</v>
+      <c r="D5" s="25">
+        <v>15.498966735550963</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="B6" s="11">
+        <v>15</v>
+      </c>
+      <c r="C6" s="11">
         <v>291</v>
       </c>
-      <c r="D6" s="12" t="n">
-        <v>6.520131746992001</v>
+      <c r="D6" s="12">
+        <v>6.5201317469920008</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="13">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="13">
         <v>369</v>
       </c>
-      <c r="D7" s="25" t="n">
-        <v>7.286298205082637</v>
+      <c r="D7" s="25">
+        <v>7.2862982050826375</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="11" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="11">
         <v>430</v>
       </c>
-      <c r="D8" s="12" t="n">
-        <v>10.509079355769</v>
+      <c r="D8" s="12">
+        <v>10.509079355768996</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="n">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="13">
         <v>244</v>
       </c>
-      <c r="D9" s="25" t="n">
-        <v>5.043093648595582</v>
+      <c r="D9" s="25">
+        <v>5.0430936485955815</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="11" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="11">
         <v>404</v>
       </c>
-      <c r="D10" s="12" t="n">
-        <v>13.02385557704707</v>
+      <c r="D10" s="12">
+        <v>13.023855577047067</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="13" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="13">
         <v>16</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="13">
         <v>288</v>
       </c>
-      <c r="D11" s="25" t="n">
-        <v>5.595057699032521</v>
+      <c r="D11" s="25">
+        <v>5.5950576990325214</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="11" t="n">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="11">
         <v>16</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="11">
         <v>258</v>
       </c>
-      <c r="D12" s="12" t="n">
-        <v>4.342191628658465</v>
+      <c r="D12" s="12">
+        <v>4.3421916286584645</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="13" t="n">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="13">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="13">
         <v>185</v>
       </c>
-      <c r="D13" s="25" t="n">
-        <v>3.45265201000336</v>
+      <c r="D13" s="25">
+        <v>3.4526520100033595</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="11" t="n">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="11">
         <v>26</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="11">
         <v>533</v>
       </c>
-      <c r="D14" s="12" t="n">
-        <v>6.640420601500012</v>
+      <c r="D14" s="12">
+        <v>6.6404206015000122</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="16" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="13" t="n">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="13">
         <v>26</v>
       </c>
-      <c r="C15" s="13" t="n">
+      <c r="C15" s="13">
         <v>462</v>
       </c>
-      <c r="D15" s="25" t="n">
-        <v>8.127649842548776</v>
+      <c r="D15" s="25">
+        <v>8.1276498425487755</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="17" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="11" t="n">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="11">
         <v>22</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="11">
         <v>428</v>
       </c>
-      <c r="D16" s="12" t="n">
-        <v>6.345158851348346</v>
+      <c r="D16" s="12">
+        <v>6.3451588513483461</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="16" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="13" t="n">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="13">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="n">
+      <c r="C17" s="13">
         <v>535</v>
       </c>
-      <c r="D17" s="25" t="n">
-        <v>14.75210941377599</v>
+      <c r="D17" s="25">
+        <v>14.752109413775989</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="17" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="11" t="n">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="11">
         <v>6</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="11">
         <v>96</v>
       </c>
-      <c r="D18" s="12" t="n">
-        <v>3.363582215059038</v>
+      <c r="D18" s="12">
+        <v>3.3635822150590378</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="16" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="13" t="n">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="13">
         <v>13</v>
       </c>
-      <c r="C19" s="13" t="n">
+      <c r="C19" s="13">
         <v>235</v>
       </c>
-      <c r="D19" s="25" t="n">
-        <v>4.144401530783203</v>
+      <c r="D19" s="25">
+        <v>4.1444015307832034</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="17" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="11" t="n">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="11">
         <v>13</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="11">
         <v>230</v>
       </c>
-      <c r="D20" s="12" t="n">
-        <v>4.586058382517148</v>
+      <c r="D20" s="12">
+        <v>4.5860583825171481</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="16" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="13" t="n">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="13">
         <v>0</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="13">
         <v>0</v>
       </c>
-      <c r="D21" s="25" t="n">
+      <c r="D21" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="11" t="n">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="11">
         <v>2</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="11">
         <v>20</v>
       </c>
-      <c r="D22" s="12" t="n">
-        <v>1.310530109429264</v>
+      <c r="D22" s="12">
+        <v>1.3105301094292641</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="16" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="13" t="n">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="13">
         <v>0</v>
       </c>
-      <c r="C23" s="13" t="n">
+      <c r="C23" s="13">
         <v>29</v>
       </c>
-      <c r="D23" s="25" t="n">
-        <v>1.315610397858731</v>
+      <c r="D23" s="25">
+        <v>1.3156103978587306</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>Nota: Población a 01/01/2024</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="n"/>
-      <c r="E24" s="1" t="n"/>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
-        </is>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="21" t="n"/>
-      <c r="B27" s="21" t="n"/>
-      <c r="C27" s="21" t="n"/>
-      <c r="D27" s="20" t="n"/>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="20"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="21" t="n"/>
-      <c r="B28" s="21" t="n"/>
-      <c r="C28" s="21" t="n"/>
-      <c r="D28" s="20" t="n"/>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="20"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="21" t="n"/>
-      <c r="B29" s="21" t="n"/>
-      <c r="C29" s="21" t="n"/>
-      <c r="D29" s="20" t="n"/>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="20"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="21" t="n"/>
-      <c r="B30" s="21" t="n"/>
-      <c r="C30" s="21" t="n"/>
-      <c r="D30" s="20" t="n"/>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="27.140625" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="inlineStr">
-        <is>
-          <t>2. Número de biciletas públicas (Valenbisi) y número de abonos según tipo por mes. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n"/>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Mes</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Abonos larga duración</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Abonos corta duración</t>
-        </is>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="16" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="13">
         <f>SUM(C4:D4)</f>
-        <v/>
-      </c>
-      <c r="C4" s="13" t="n">
+        <v>38622</v>
+      </c>
+      <c r="C4" s="13">
         <v>37281</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="13">
         <v>1341</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="17" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="11">
-        <f>SUM(C5:D5)</f>
-        <v/>
-      </c>
-      <c r="C5" s="11" t="n">
+        <f t="shared" ref="B5:B15" si="0">SUM(C5:D5)</f>
+        <v>38954</v>
+      </c>
+      <c r="C5" s="11">
         <v>37401</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>1553</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="16" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="13">
-        <f>SUM(C6:D6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="13" t="n">
+        <f t="shared" si="0"/>
+        <v>40568</v>
+      </c>
+      <c r="C6" s="13">
         <v>37909</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="13">
         <v>2659</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="17" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>1</v>
       </c>
       <c r="B7" s="11">
-        <f>SUM(C7:D7)</f>
-        <v/>
-      </c>
-      <c r="C7" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>41960</v>
+      </c>
+      <c r="C7" s="11">
         <v>38043</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>3917</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="16" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="13">
-        <f>SUM(C8:D8)</f>
-        <v/>
-      </c>
-      <c r="C8" s="13" t="n">
+        <f t="shared" si="0"/>
+        <v>42170</v>
+      </c>
+      <c r="C8" s="13">
         <v>38312</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="13">
         <v>3858</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="17" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="11">
-        <f>SUM(C9:D9)</f>
-        <v/>
-      </c>
-      <c r="C9" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>42850</v>
+      </c>
+      <c r="C9" s="11">
         <v>38544</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>4306</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="16" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="13">
-        <f>SUM(C10:D10)</f>
-        <v/>
-      </c>
-      <c r="C10" s="13" t="n">
+        <f t="shared" si="0"/>
+        <v>44394</v>
+      </c>
+      <c r="C10" s="13">
         <v>38721</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="13">
         <v>5673</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="11">
-        <f>SUM(C11:D11)</f>
-        <v/>
-      </c>
-      <c r="C11" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>45598</v>
+      </c>
+      <c r="C11" s="11">
         <v>38826</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>6772</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="16" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="13">
-        <f>SUM(C12:D12)</f>
-        <v/>
-      </c>
-      <c r="C12" s="13" t="n">
+        <f t="shared" si="0"/>
+        <v>44783</v>
+      </c>
+      <c r="C12" s="13">
         <v>39487</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="13">
         <v>5296</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="17" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="11">
-        <f>SUM(C13:D13)</f>
-        <v/>
-      </c>
-      <c r="C13" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>45523</v>
+      </c>
+      <c r="C13" s="11">
         <v>40024</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>5499</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="13">
-        <f>SUM(C14:D14)</f>
-        <v/>
-      </c>
-      <c r="C14" s="13" t="n">
+        <f t="shared" si="0"/>
+        <v>45112</v>
+      </c>
+      <c r="C14" s="13">
         <v>40225</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="13">
         <v>4887</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="17" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="11">
-        <f>SUM(C15:D15)</f>
-        <v/>
-      </c>
-      <c r="C15" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>46552</v>
+      </c>
+      <c r="C15" s="11">
         <v>40920</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>5632</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="16" t="inlineStr">
-        <is>
-          <t>Número de bicis (31/12/2023)</t>
-        </is>
-      </c>
-      <c r="B16" s="13" t="n">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="13">
         <v>2750</v>
       </c>
-      <c r="C16" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D16" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="n"/>
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.7109375" customWidth="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="12.85546875" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" min="2" max="7"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="inlineStr">
-        <is>
-          <t>3. Uso de bicicletas públicas (Valenbisi) según tipo de abono y mes. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="n"/>
-      <c r="F2" s="1" t="n"/>
-      <c r="G2" s="1" t="n"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="15" t="n"/>
-      <c r="B3" s="34" t="inlineStr">
-        <is>
-          <t>Número de usos</t>
-        </is>
-      </c>
-      <c r="E3" s="19" t="inlineStr">
-        <is>
-          <t>Media de usos diarios</t>
-        </is>
-      </c>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
-    <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="15" t="inlineStr">
-        <is>
-          <t>Mes</t>
-        </is>
-      </c>
-      <c r="B4" s="18" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C4" s="18" t="inlineStr">
-        <is>
-          <t>Abonos larga duración</t>
-        </is>
-      </c>
-      <c r="D4" s="18" t="inlineStr">
-        <is>
-          <t>Abonos corta duración</t>
-        </is>
-      </c>
-      <c r="E4" s="19" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F4" s="18" t="inlineStr">
-        <is>
-          <t>Días laborables</t>
-        </is>
-      </c>
-      <c r="G4" s="18" t="inlineStr">
-        <is>
-          <t>Días festivos</t>
-        </is>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="B5" s="9">
         <f>SUM(B6:B17)</f>
-        <v/>
+        <v>4298826</v>
       </c>
       <c r="C5" s="9">
         <f>SUM(C6:C17)</f>
-        <v/>
+        <v>3986196</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(D6:D17)</f>
-        <v/>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>11944.86767123288</v>
-      </c>
-      <c r="F5" s="26" t="n">
-        <v>13372.55222672065</v>
-      </c>
-      <c r="G5" s="26" t="n">
-        <v>8574.22033898305</v>
+        <v>312630</v>
+      </c>
+      <c r="E5" s="9">
+        <v>11944.867671232878</v>
+      </c>
+      <c r="F5" s="26">
+        <v>13372.552226720647</v>
+      </c>
+      <c r="G5" s="26">
+        <v>8574.2203389830502</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="11">
         <f>SUM(C6,D6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="11" t="n">
+        <v>323288</v>
+      </c>
+      <c r="C6" s="11">
         <v>313754</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="11">
         <v>9534</v>
       </c>
-      <c r="E6" s="11" t="n">
-        <v>10776.26666666667</v>
+      <c r="E6" s="11">
+        <v>10776.266666666666</v>
       </c>
       <c r="F6" s="27">
         <f>248932/21</f>
-        <v/>
+        <v>11853.904761904761</v>
       </c>
       <c r="G6" s="27">
         <f>74356/10</f>
-        <v/>
+        <v>7435.6</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="13">
-        <f>SUM(C7,D7)</f>
-        <v/>
-      </c>
-      <c r="C7" s="13" t="n">
+        <f t="shared" ref="B7:B17" si="0">SUM(C7,D7)</f>
+        <v>302492</v>
+      </c>
+      <c r="C7" s="13">
         <v>293022</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="13">
         <v>9470</v>
       </c>
-      <c r="E7" s="13" t="n">
-        <v>10083.06666666667</v>
+      <c r="E7" s="13">
+        <v>10083.066666666668</v>
       </c>
       <c r="F7" s="28">
         <f>237541/20</f>
-        <v/>
+        <v>11877.05</v>
       </c>
       <c r="G7" s="28">
         <f>64951/8</f>
-        <v/>
+        <v>8118.875</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="B8" s="11">
-        <f>SUM(C8,D8)</f>
-        <v/>
-      </c>
-      <c r="C8" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>380121</v>
+      </c>
+      <c r="C8" s="11">
         <v>362101</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="11">
         <v>18020</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="11">
         <v>12670.7</v>
       </c>
       <c r="F8" s="27">
         <f>305722/23</f>
-        <v/>
+        <v>13292.260869565218</v>
       </c>
       <c r="G8" s="27">
         <f>74399/8</f>
-        <v/>
+        <v>9299.875</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="16" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="B9" s="13">
-        <f>SUM(C9,D9)</f>
-        <v/>
-      </c>
-      <c r="C9" s="13" t="n">
+        <f t="shared" si="0"/>
+        <v>341285</v>
+      </c>
+      <c r="C9" s="13">
         <v>313311</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="13">
         <v>27974</v>
       </c>
-      <c r="E9" s="13" t="n">
-        <v>11376.16666666667</v>
+      <c r="E9" s="13">
+        <v>11376.166666666666</v>
       </c>
       <c r="F9" s="28">
         <f>219466/16</f>
-        <v/>
+        <v>13716.625</v>
       </c>
       <c r="G9" s="28">
         <f>121819/14</f>
-        <v/>
+        <v>8701.3571428571431</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="B10" s="11">
-        <f>SUM(C10,D10)</f>
-        <v/>
-      </c>
-      <c r="C10" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>408343</v>
+      </c>
+      <c r="C10" s="11">
         <v>378398</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="11">
         <v>29945</v>
       </c>
-      <c r="E10" s="11" t="n">
-        <v>13611.43333333333</v>
+      <c r="E10" s="11">
+        <v>13611.433333333332</v>
       </c>
       <c r="F10" s="27">
         <f>320946/22</f>
-        <v/>
+        <v>14588.454545454546</v>
       </c>
       <c r="G10" s="27">
         <f>87397/9</f>
-        <v/>
+        <v>9710.7777777777774</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="16" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="B11" s="13">
-        <f>SUM(C11,D11)</f>
-        <v/>
-      </c>
-      <c r="C11" s="13" t="n">
+        <f t="shared" si="0"/>
+        <v>376712</v>
+      </c>
+      <c r="C11" s="13">
         <v>344010</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="13">
         <v>32702</v>
       </c>
-      <c r="E11" s="13" t="n">
-        <v>12557.06666666667</v>
+      <c r="E11" s="13">
+        <v>12557.066666666668</v>
       </c>
       <c r="F11" s="28">
         <f>296575/22</f>
-        <v/>
+        <v>13480.681818181818</v>
       </c>
       <c r="G11" s="28">
         <f>80137/8</f>
-        <v/>
+        <v>10017.125</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="17" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B12" s="11">
-        <f>SUM(C12,D12)</f>
-        <v/>
-      </c>
-      <c r="C12" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>321116</v>
+      </c>
+      <c r="C12" s="11">
         <v>271475</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="11">
         <v>49641</v>
       </c>
-      <c r="E12" s="11" t="n">
-        <v>10703.86666666667</v>
+      <c r="E12" s="11">
+        <v>10703.866666666667</v>
       </c>
       <c r="F12" s="27">
         <f>237605/21</f>
-        <v/>
+        <v>11314.523809523809</v>
       </c>
       <c r="G12" s="27">
         <f>83511/10</f>
-        <v/>
+        <v>8351.1</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="13">
-        <f>SUM(C13,D13)</f>
-        <v/>
-      </c>
-      <c r="C13" s="13" t="n">
+        <f t="shared" si="0"/>
+        <v>218153</v>
+      </c>
+      <c r="C13" s="13">
         <v>211666</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="13">
         <v>6487</v>
       </c>
-      <c r="E13" s="13" t="n">
-        <v>7271.766666666666</v>
+      <c r="E13" s="13">
+        <v>7271.7666666666664</v>
       </c>
       <c r="F13" s="28">
         <f>210061/22</f>
-        <v/>
+        <v>9548.2272727272721</v>
       </c>
       <c r="G13" s="28">
         <f>8092/9</f>
-        <v/>
+        <v>899.11111111111109</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="11">
-        <f>SUM(C14,D14)</f>
-        <v/>
-      </c>
-      <c r="C14" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>430633</v>
+      </c>
+      <c r="C14" s="11">
         <v>388331</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="11">
         <v>42302</v>
       </c>
-      <c r="E14" s="11" t="n">
-        <v>14354.43333333333</v>
+      <c r="E14" s="11">
+        <v>14354.433333333332</v>
       </c>
       <c r="F14" s="27">
         <f>334951/21</f>
-        <v/>
+        <v>15950.047619047618</v>
       </c>
       <c r="G14" s="27">
         <f>95682/9</f>
-        <v/>
+        <v>10631.333333333334</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="16" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>2</v>
       </c>
       <c r="B15" s="13">
-        <f>SUM(C15,D15)</f>
-        <v/>
-      </c>
-      <c r="C15" s="13" t="n">
+        <f t="shared" si="0"/>
+        <v>471588</v>
+      </c>
+      <c r="C15" s="13">
         <v>431354</v>
       </c>
-      <c r="D15" s="13" t="n">
+      <c r="D15" s="13">
         <v>40234</v>
       </c>
-      <c r="E15" s="13" t="n">
+      <c r="E15" s="13">
         <v>15719.6</v>
       </c>
       <c r="F15" s="28">
         <f>355141/20</f>
-        <v/>
+        <v>17757.05</v>
       </c>
       <c r="G15" s="28">
         <f>116447/11</f>
-        <v/>
+        <v>10586.09090909091</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="17" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="B16" s="11">
-        <f>SUM(C16,D16)</f>
-        <v/>
-      </c>
-      <c r="C16" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>411199</v>
+      </c>
+      <c r="C16" s="11">
         <v>386328</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="11">
         <v>24871</v>
       </c>
-      <c r="E16" s="11" t="n">
-        <v>13706.63333333333</v>
+      <c r="E16" s="11">
+        <v>13706.633333333333</v>
       </c>
       <c r="F16" s="27">
         <f>319048/20</f>
-        <v/>
+        <v>15952.4</v>
       </c>
       <c r="G16" s="27">
         <f>92151/9</f>
-        <v/>
+        <v>10239</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="16" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="B17" s="13">
-        <f>SUM(C17,D17)</f>
-        <v/>
-      </c>
-      <c r="C17" s="13" t="n">
+        <f t="shared" si="0"/>
+        <v>313896</v>
+      </c>
+      <c r="C17" s="13">
         <v>292446</v>
       </c>
-      <c r="D17" s="13" t="n">
+      <c r="D17" s="13">
         <v>21450</v>
       </c>
-      <c r="E17" s="13" t="n">
-        <v>10463.2</v>
+      <c r="E17" s="13">
+        <v>10463.200000000001</v>
       </c>
       <c r="F17" s="28">
         <f>201080/18</f>
-        <v/>
+        <v>11171.111111111111</v>
       </c>
       <c r="G17" s="28">
         <f>112816/13</f>
-        <v/>
+        <v>8678.1538461538457</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>Nota: En días festivos se han incluido todos los sábados, domingos y días de lunes a viernes considerados festivos para el año estudiado en la ciudad de València.</t>
-        </is>
-      </c>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="13" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="13" t="n"/>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="10" t="n"/>
-      <c r="G19" s="1" t="n"/>
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>